--- a/DongAERP/Content/Report/ReportHS/ReportHSForDMY.xlsx
+++ b/DongAERP/Content/Report/ReportHS/ReportHSForDMY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA64CBA-62C9-4363-BBB2-52D2317E5A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223A46DD-7AAE-44D9-89D6-1D34B19F151F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -44,16 +44,16 @@
     <t>Đến:</t>
   </si>
   <si>
-    <t>Doanh số chi quầy</t>
-  </si>
-  <si>
-    <t>Doanh số chi nhà</t>
-  </si>
-  <si>
-    <t>Doanh số chi chuyển khoản</t>
-  </si>
-  <si>
-    <t>Tổng doanh số</t>
+    <t>Hồ sơ chi quầy</t>
+  </si>
+  <si>
+    <t>Hồ sơ chi nhà</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>Hồ sơ chuyển khoản</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,10 +535,10 @@
         <v>4</v>
       </c>
       <c r="S7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
